--- a/src/main/java/au/com/onegeek/lambda/tests/tests.xlsx
+++ b/src/main/java/au/com/onegeek/lambda/tests/tests.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tests" sheetId="3" r:id="rId2"/>
+    <sheet name="suite-demo1" sheetId="3" r:id="rId2"/>
     <sheet name="data set 1" sheetId="2" r:id="rId3"/>
     <sheet name="data set 2" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -648,7 +648,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
